--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,101 +436,64 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MaxPAE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MaxTAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>MaxVAE</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MaxTAE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MaxPAE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>MSE</t>
+          <t>PSNR</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>SSIM</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>PSNR</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>MaxAE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>baseline_h</t>
+          <t>best_h</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0102</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.0015</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.1623</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>0.0012</v>
+        <v>-0.0063</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>52.6148</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.0068</v>
       </c>
       <c r="H2" t="n">
-        <v>54.4204</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.7539</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>best_h</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.0102</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9975000000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>54.4204</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.7539</v>
+        <v>0.9971</v>
       </c>
     </row>
   </sheetData>
